--- a/data/HR1/A_BJ_1/A_BJ_1_2024.xlsx
+++ b/data/HR1/A_BJ_1/A_BJ_1_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_35\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85320394-3A6C-4079-BD3D-E2C5BA91E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566D5906-2B4F-496F-B7B8-2BF0F0CF4F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="23" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16588,8 +16588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16602,11 +16602,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/7</f>
@@ -55285,7 +55284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D9792-F63F-4427-BB5B-847351ACEE5E}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1/A_BJ_1/A_BJ_1_2024.xlsx
+++ b/data/HR1/A_BJ_1/A_BJ_1_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566D5906-2B4F-496F-B7B8-2BF0F0CF4F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B84BB4C-BCAD-437C-A841-7B2FB2C98E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16589,7 +16589,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16602,10 +16602,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D1" s="1">
         <f>1/7</f>

--- a/data/HR1/A_BJ_1/A_BJ_1_2024.xlsx
+++ b/data/HR1/A_BJ_1/A_BJ_1_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B84BB4C-BCAD-437C-A841-7B2FB2C98E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F4E250-A046-4A7F-8527-E7FC8695A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16588,7 +16588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
@@ -16670,8 +16670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF74DB5-EFCC-433E-A956-0EF0B90EABA6}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56841,7 +56841,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
